--- a/Resultados/Mercado mundial - Nueces de nogal con cáscara.xlsx
+++ b/Resultados/Mercado mundial - Nueces de nogal con cáscara.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="United States of America" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Iran (Islamic Republic of)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Chile" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chile" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$B$12:$B$73</f>
+              <f>'Irán (República Islámica del)'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$C$12:$C$73</f>
+              <f>'Irán (República Islámica del)'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Chile'!$B$12:$B$73</f>
+              <f>'Chile'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chile'!$C$12:$C$73</f>
+              <f>'Chile'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>1251957</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.1859</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3988642.91</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.1859</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>481458.39</v>
@@ -2160,10 +2160,10 @@
         <v>1234530</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3.1619</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3903413.9</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3.1619</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>425169.42</v>
@@ -2182,10 +2182,10 @@
         <v>1126358</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3.1267</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3521764.39</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3.1267</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>409878.35</v>
@@ -2204,10 +2204,10 @@
         <v>1094725</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3.1548</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3453596.05</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3.1548</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>355657.45</v>
@@ -2226,10 +2226,10 @@
         <v>1024002</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3.0414</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3114431.3</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3.0414</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>443501.44</v>
@@ -2248,10 +2248,10 @@
         <v>944744</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3.1666</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2991670.67</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3.1666</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>263917.88</v>
@@ -2270,10 +2270,10 @@
         <v>942921</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3.2594</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3073361.72</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3.2594</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>251479.41</v>
@@ -2292,10 +2292,10 @@
         <v>972036</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3.1915</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3102215.75</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3.1915</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>238189.93</v>
@@ -2314,10 +2314,10 @@
         <v>994034</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3.0756</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3057259.09</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3.0756</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>189989.24</v>
@@ -2336,10 +2336,10 @@
         <v>925324</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3.0299</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2803597.6</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3.0299</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>192076.11</v>
@@ -2358,10 +2358,10 @@
         <v>842228</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.9003</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2442678.78</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.9003</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>253305</v>
@@ -2380,10 +2380,10 @@
         <v>789607</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.9999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2368722.7</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.9999</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>227771</v>
@@ -2402,10 +2402,10 @@
         <v>1073174</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.9919</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3210852.52</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.9919</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>212980</v>
@@ -2424,10 +2424,10 @@
         <v>958779</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2780468.62</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.9</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>198973</v>
@@ -2446,10 +2446,10 @@
         <v>830213</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.9981</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2489066.03</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.9981</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>177671</v>
@@ -2468,10 +2468,10 @@
         <v>783821</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.8772</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2255247.39</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2.8772</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>140188</v>
@@ -2490,10 +2490,10 @@
         <v>700999</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.8461</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1995134.48</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.8461</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>112192</v>
@@ -2512,10 +2512,10 @@
         <v>680003</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.7461</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1867375.56</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.7461</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>113594</v>
@@ -2534,10 +2534,10 @@
         <v>631005</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2.8795</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1816976.56</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2.8795</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>91234</v>
@@ -2556,10 +2556,10 @@
         <v>610847</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2.5696</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1569648.96</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2.5696</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>119133</v>
@@ -2578,10 +2578,10 @@
         <v>597973</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2.6614</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1591455.94</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2.6614</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>91509</v>
@@ -2600,10 +2600,10 @@
         <v>570425</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2.4816</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1415575.13</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2.4816</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>95062</v>
@@ -2622,10 +2622,10 @@
         <v>559914</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2.3707</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1327394.47</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2.3707</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>78535</v>
@@ -2644,10 +2644,10 @@
         <v>544802</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.3635</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1287662.57</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.3635</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>88029.19</v>
@@ -2666,10 +2666,10 @@
         <v>527187</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2.3892</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1259557.23</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2.3892</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>85610.27</v>
@@ -2688,10 +2688,10 @@
         <v>515558</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2.3205</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1196367.98</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2.3205</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>68917.53</v>
@@ -2710,10 +2710,10 @@
         <v>465459</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2.4277</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1129980.58</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2.4277</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>60149.75</v>
@@ -2732,10 +2732,10 @@
         <v>465086</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.3571</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1096252.12</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.3571</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>70177</v>
@@ -2754,10 +2754,10 @@
         <v>449684</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2.3659</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1063926.03</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2.3659</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>68295</v>
@@ -2776,10 +2776,10 @@
         <v>432949</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.4383</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1055641.01</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.4383</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>76620</v>
@@ -2798,10 +2798,10 @@
         <v>441280</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.5097</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1107485.03</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2.5097</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>61043</v>
@@ -2820,10 +2820,10 @@
         <v>421113</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.2328</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>940243.8</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.2328</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>61950</v>
@@ -2842,10 +2842,10 @@
         <v>418369</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.2232</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>930139.8</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.2232</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>68914</v>
@@ -2864,10 +2864,10 @@
         <v>405133</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.1981</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>890515</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.1981</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>70982</v>
@@ -2886,10 +2886,10 @@
         <v>404558</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.2729</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>919535</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.2729</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>68165</v>
@@ -2908,10 +2908,10 @@
         <v>406471</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.1352</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>867914</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.1352</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>67157</v>
@@ -2930,10 +2930,10 @@
         <v>397147</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>874537</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.202</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>68881</v>
@@ -2952,10 +2952,10 @@
         <v>398237</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.1155</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>842476</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.1155</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>63234</v>
@@ -2974,10 +2974,10 @@
         <v>385884</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.1666</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>836056</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.1666</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>63873</v>
@@ -2996,10 +2996,10 @@
         <v>176299</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.7556</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>838407</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.7556</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>59717</v>
@@ -3018,10 +3018,10 @@
         <v>175373</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4.8129</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>844051</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4.8129</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>51766</v>
@@ -3040,10 +3040,10 @@
         <v>176863</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.9438</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>874377</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4.9438</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>64009</v>
@@ -3062,10 +3062,10 @@
         <v>174082</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.4848</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>780722</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.4848</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>75887</v>
@@ -3084,10 +3084,10 @@
         <v>173874</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.5747</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>795415</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.5747</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>64964</v>
@@ -3106,10 +3106,10 @@
         <v>173991</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.5446</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>790726</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.5446</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>54611</v>
@@ -3128,10 +3128,10 @@
         <v>177724</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.1857</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>743899</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.1857</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>52872</v>
@@ -3150,10 +3150,10 @@
         <v>169429</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4.2295</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>716599</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4.2295</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>52360</v>
@@ -3172,10 +3172,10 @@
         <v>169733</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4.3803</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>743482</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4.3803</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>63856</v>
@@ -3194,10 +3194,10 @@
         <v>166001</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.4142</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>732768</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.4142</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>55222</v>
@@ -3216,10 +3216,10 @@
         <v>158056</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4.227</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>668099</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4.227</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>41931</v>
@@ -3238,10 +3238,10 @@
         <v>160114</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.9462</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>791963</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.9462</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>44198</v>
@@ -3260,10 +3260,10 @@
         <v>164461</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>635637</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3.865</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>40196</v>
@@ -3282,10 +3282,10 @@
         <v>157709</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4.3028</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>678585</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4.3028</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>43590</v>
@@ -3304,10 +3304,10 @@
         <v>158954</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4.118600000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>654660</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4.118600000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>32117</v>
@@ -3326,10 +3326,10 @@
         <v>153788</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4.0313</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>619973</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4.0313</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>31853</v>
@@ -3348,10 +3348,10 @@
         <v>158000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.7421</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>591254</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3.7421</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>32838</v>
@@ -3370,10 +3370,10 @@
         <v>156297</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3.5967</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>562147</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3.5967</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>32786</v>
@@ -3391,10 +3391,10 @@
         <v>161715</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.6137</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>584392</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.6137</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>33382</v>
@@ -3412,10 +3412,10 @@
         <v>157435</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3.3885</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>533463</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3.3885</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>34412</v>
@@ -3433,10 +3433,10 @@
         <v>158906</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.4448</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>547407</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.4448</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>27616</v>
@@ -3454,10 +3454,10 @@
         <v>158248</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3.3437</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>529130</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3.3437</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>25348</v>
@@ -3475,10 +3475,10 @@
         <v>160074</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3.3121</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>530187</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3.3121</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>28821</v>
@@ -3496,10 +3496,10 @@
         <v>161347</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3.0808</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>497077</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3.0808</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>24159</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Rumanía</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kirguistán</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kirguistán</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>355995</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.9326</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.9326</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2791.43</v>
@@ -5033,10 +5033,10 @@
         <v>359845</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3.8906</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3.8906</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4054.25</v>
@@ -5055,10 +5055,10 @@
         <v>285826</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3.8485</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3.8485</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3945.79</v>
@@ -5077,10 +5077,10 @@
         <v>286013</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3.846</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5526.42</v>
@@ -5099,10 +5099,10 @@
         <v>267939</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3.7322</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3.7322</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4407.14</v>
@@ -5121,10 +5121,10 @@
         <v>229930</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3.6968</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>850000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3.6968</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4868.38</v>
@@ -5143,10 +5143,10 @@
         <v>272791</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3.6658</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3.6658</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5176.35</v>
@@ -5165,10 +5165,10 @@
         <v>290665</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3.6468</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1060000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3.6468</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>4801.79</v>
@@ -5187,10 +5187,10 @@
         <v>268875</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3.7192</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3.7192</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5664.56</v>
@@ -5209,10 +5209,10 @@
         <v>249312</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3.6099</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>900000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3.6099</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8284.93</v>
@@ -5231,10 +5231,10 @@
         <v>224455</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3.4751</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>780000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3.4751</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>12923</v>
@@ -5253,10 +5253,10 @@
         <v>217487</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3.3105</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>720000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3.3105</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>17732</v>
@@ -5275,10 +5275,10 @@
         <v>508528</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3.2555</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1655508</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3.2555</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>15513</v>
@@ -5297,10 +5297,10 @@
         <v>402737</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3.1891</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1284351</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3.1891</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>14962</v>
@@ -5319,10 +5319,10 @@
         <v>305000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>979366</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3.211</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>11834</v>
@@ -5341,10 +5341,10 @@
         <v>275000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3.0132</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>828635</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3.0132</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>5499</v>
@@ -5363,10 +5363,10 @@
         <v>210000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.9999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>629986</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.9999</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2006</v>
@@ -5385,10 +5385,10 @@
         <v>188000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>475455</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.529</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1010</v>
@@ -5407,10 +5407,10 @@
         <v>186000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2.6832</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>499074</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2.6832</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>652</v>
@@ -5429,10 +5429,10 @@
         <v>185000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2.3614</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>436862</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2.3614</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>249</v>
@@ -5451,10 +5451,10 @@
         <v>180000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2.1863</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>393529</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2.1863</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>218</v>
@@ -5473,10 +5473,10 @@
         <v>176000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.9506</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>343305</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.9506</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1043</v>
@@ -5495,10 +5495,10 @@
         <v>175000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>252347</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.442</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>494</v>
@@ -5517,10 +5517,10 @@
         <v>168000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.8445</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>309875</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.8445</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>731.98</v>
@@ -5539,10 +5539,10 @@
         <v>165000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.6621</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>274246</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.6621</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>164000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.6415</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>269203</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.6415</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>162</v>
@@ -5583,10 +5583,10 @@
         <v>160000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.5615</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>249834</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.5615</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>122</v>
@@ -5605,10 +5605,10 @@
         <v>150000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.5866</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>237989</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.5866</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>25</v>
@@ -5627,10 +5627,10 @@
         <v>150000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.5378</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>230667</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.5378</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>6</v>
@@ -5649,10 +5649,10 @@
         <v>140000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>209997</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.5</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24</v>
@@ -5671,10 +5671,10 @@
         <v>144000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>216000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.5</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>20</v>
@@ -5693,10 +5693,10 @@
         <v>71000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.3079</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>163862</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.3079</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>90</v>
@@ -5715,10 +5715,10 @@
         <v>73494</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.0634</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>151644</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.0634</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5737,10 +5737,10 @@
         <v>68000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.1994</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>149560</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.1994</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>2</v>
@@ -5759,10 +5759,10 @@
         <v>72000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.223</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>160054</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.223</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2</v>
@@ -5781,10 +5781,10 @@
         <v>77000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>177098</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.3</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>19</v>
@@ -5803,10 +5803,10 @@
         <v>65000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.2615</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>147000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.2615</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>61000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>136335</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.235</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5847,10 +5847,10 @@
         <v>55000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.2167</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>121917</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.2167</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="n">
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="n">
         <v>128200</v>
       </c>
-      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -5884,10 +5884,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="n">
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="n">
         <v>119000</v>
       </c>
-      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
@@ -5902,10 +5902,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="n">
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
         <v>103000</v>
       </c>
-      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -5920,10 +5920,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="n">
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
         <v>107000</v>
       </c>
-      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -5938,10 +5938,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="n">
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
         <v>119000</v>
       </c>
-      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -5956,10 +5956,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
         <v>91000</v>
       </c>
-      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -5974,10 +5974,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
         <v>113000</v>
       </c>
-      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -5992,10 +5992,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
         <v>76000</v>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -6010,10 +6010,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
         <v>71000</v>
       </c>
-      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -6028,10 +6028,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -6046,10 +6046,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
         <v>80000</v>
       </c>
-      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -6064,10 +6064,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
         <v>81000</v>
       </c>
-      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -6082,10 +6082,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
         <v>72000</v>
       </c>
-      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -6100,10 +6100,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
         <v>70000</v>
       </c>
-      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -6118,10 +6118,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
         <v>51000</v>
       </c>
-      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -6136,10 +6136,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
         <v>47000</v>
       </c>
-      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -6154,10 +6154,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
         <v>40000</v>
       </c>
-      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -6172,10 +6172,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
         <v>41000</v>
       </c>
-      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -6189,10 +6189,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
         <v>42000</v>
       </c>
-      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -6206,10 +6206,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
         <v>48000</v>
       </c>
-      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -6223,10 +6223,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
         <v>42000</v>
       </c>
-      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -6240,10 +6240,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
         <v>46000</v>
       </c>
-      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -6257,10 +6257,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
         <v>40000</v>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -6274,10 +6274,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
         <v>40000</v>
       </c>
-      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6691,10 +6691,10 @@
         <v>155806</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4.797800000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>747520</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4.797800000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.9</v>
@@ -6713,10 +6713,10 @@
         <v>161876</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4.236800000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>685830</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4.236800000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1348.35</v>
@@ -6735,10 +6735,10 @@
         <v>159853</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4.1712</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>666780</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4.1712</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1237.52</v>
@@ -6757,10 +6757,10 @@
         <v>153782</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>4.660399999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>716680</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>4.660399999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>463.07</v>
@@ -6779,10 +6779,10 @@
         <v>147710</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4.0228</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>594206.1800000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4.0228</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>529.5599999999999</v>
@@ -6801,10 +6801,10 @@
         <v>141640</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4.3489</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>615980</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4.3489</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>388.94</v>
@@ -6823,10 +6823,10 @@
         <v>135570</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4.2158</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>571530</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4.2158</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>982.35</v>
@@ -6845,10 +6845,10 @@
         <v>127480</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4.9031</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>625050</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4.9031</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>782.83</v>
@@ -6867,10 +6867,10 @@
         <v>121406</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4.5282</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>549754</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4.5282</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>125.88</v>
@@ -6889,10 +6889,10 @@
         <v>117359</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4.4138</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>518002</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4.4138</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>798.95</v>
@@ -6911,10 +6911,10 @@
         <v>113311</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>446334</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3.939</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1023</v>
@@ -6933,10 +6933,10 @@
         <v>109269</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4.5484</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>497000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4.5484</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>95</v>
@@ -6955,10 +6955,10 @@
         <v>107242</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3.8997</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>418212</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3.8997</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>156</v>
@@ -6977,10 +6977,10 @@
         <v>103195</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.4307</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>457221</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.4307</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>8</v>
@@ -6999,10 +6999,10 @@
         <v>97125</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4.0818</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>396440</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4.0818</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>74</v>
@@ -7021,10 +7021,10 @@
         <v>93078</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4.2494</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>395530</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4.2494</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>788</v>
@@ -7043,10 +7043,10 @@
         <v>88222</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3.3728</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>297555</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3.3728</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2</v>
@@ -7065,10 +7065,10 @@
         <v>87007</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3.6493</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>317515</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3.6493</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>6</v>
@@ -7087,10 +7087,10 @@
         <v>87007</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3.7014</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>322051</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3.7014</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>62</v>
@@ -7109,10 +7109,10 @@
         <v>86603</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3.4044</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>294835</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3.4044</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>66</v>
@@ -7131,10 +7131,10 @@
         <v>86198</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3.4309</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>295740</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3.4309</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>80</v>
@@ -7153,10 +7153,10 @@
         <v>84984</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3.0103</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>255830</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3.0103</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>42</v>
@@ -7175,10 +7175,10 @@
         <v>82556</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3.3515</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>276690</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3.3515</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2</v>
@@ -7197,10 +7197,10 @@
         <v>78100</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.7762</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>216820</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.7762</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -7219,10 +7219,10 @@
         <v>79130</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3.2444</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>256730</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3.2444</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -7241,10 +7241,10 @@
         <v>79130</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2.6024</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>205930</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2.6024</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>19</v>
@@ -7263,10 +7263,10 @@
         <v>79130</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3.0936</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>244800</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3.0936</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>36</v>
@@ -7285,10 +7285,10 @@
         <v>77700</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.4286</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>188700</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.4286</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -7307,10 +7307,10 @@
         <v>78100</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2.7183</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>212300</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2.7183</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -7329,10 +7329,10 @@
         <v>76480</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.7518</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>210460</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.7518</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>78</v>
@@ -7351,10 +7351,10 @@
         <v>74870</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.1508</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>235900</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.1508</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>155</v>
@@ -7373,10 +7373,10 @@
         <v>72030</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.5567</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>184160</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.5567</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>15</v>
@@ -7395,10 +7395,10 @@
         <v>73250</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.2082</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>235000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.2082</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7417,10 +7417,10 @@
         <v>73250</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.8109</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>205900</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.8109</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>72</v>
@@ -7439,10 +7439,10 @@
         <v>72440</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.8672</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>207700</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.8672</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1</v>
@@ -7461,10 +7461,10 @@
         <v>71630</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.6469</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>189600</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.6469</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>2</v>
@@ -7483,10 +7483,10 @@
         <v>71220</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.1452</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>224000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.1452</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>38</v>
@@ -7505,10 +7505,10 @@
         <v>72840</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.2419</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>163300</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.2419</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>16</v>
@@ -7527,10 +7527,10 @@
         <v>72440</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>198700</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.743</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>72030</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.6822</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>193200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.6822</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7571,10 +7571,10 @@
         <v>71220</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.5348</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>180525</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.5348</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>4</v>
@@ -7593,10 +7593,10 @@
         <v>72030</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.9471</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>212280</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.9471</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7615,10 +7615,10 @@
         <v>70860</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.8806</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>204120</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.8806</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7637,10 +7637,10 @@
         <v>72800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.4549</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>178720</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.4549</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7659,10 +7659,10 @@
         <v>72520</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2.6019</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>188693</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2.6019</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7681,10 +7681,10 @@
         <v>73410</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.9772</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>145149</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.9772</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7703,10 +7703,10 @@
         <v>73170</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.3867</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>174632</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.3867</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>70540</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.3625</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>166649</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.3625</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7747,10 +7747,10 @@
         <v>68920</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.6233</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>180801</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.6233</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7769,10 +7769,10 @@
         <v>67900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.0909</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>141974</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.0909</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>66040</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.404</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>158760</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.404</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7813,10 +7813,10 @@
         <v>66000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.6054</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>105959</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.6054</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7835,10 +7835,10 @@
         <v>63290</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.9551</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>123740</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.9551</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7857,10 +7857,10 @@
         <v>62000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.6359</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>101423</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.6359</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7879,10 +7879,10 @@
         <v>60860</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.5726</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>95707</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.5726</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7901,10 +7901,10 @@
         <v>59570</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.4559</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>86726</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.4559</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7923,10 +7923,10 @@
         <v>59250</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.1698</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>69308</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.1698</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7944,10 +7944,10 @@
         <v>58920</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.4781</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>87089</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.4781</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>56860</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.2811</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>72846</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.2811</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -7986,10 +7986,10 @@
         <v>57950</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>81828</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.412</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>7</v>
@@ -8007,10 +8007,10 @@
         <v>57020</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.3221</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>75387</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.3221</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>4</v>
@@ -8028,10 +8028,10 @@
         <v>57790</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.2543</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>72484</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.2543</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>5</v>
@@ -8049,10 +8049,10 @@
         <v>57590</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.0633</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>61235</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.0633</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>25</v>
@@ -8388,7 +8388,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8467,10 +8467,10 @@
         <v>61383</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.206899999999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>380998.54</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.206899999999999</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>30613.78</v>
@@ -8489,10 +8489,10 @@
         <v>55689</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.3754</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>355039.94</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.3754</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>38904.03</v>
@@ -8511,10 +8511,10 @@
         <v>58987</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.529</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>385125.24</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.529</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8531,10 +8531,10 @@
         <v>51437</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>7.062600000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>363279.98</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>7.062600000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8551,10 +8551,10 @@
         <v>44780</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>321073.55</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7.17</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>41679.39</v>
@@ -8573,10 +8573,10 @@
         <v>43186</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7.0402</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>304039.93</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7.0402</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -8593,10 +8593,10 @@
         <v>53952</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7.2953</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>393598</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7.2953</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>402</v>
@@ -8615,10 +8615,10 @@
         <v>71425</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4.8889</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>349192</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4.8889</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6341</v>
@@ -8637,10 +8637,10 @@
         <v>142000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.9577</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>420000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.9577</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5652.77</v>
@@ -8659,10 +8659,10 @@
         <v>141019</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.8589</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>403158</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.8589</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>7940</v>
@@ -8681,10 +8681,10 @@
         <v>109759</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.0282</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>222610.2</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.0282</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -8703,10 +8703,10 @@
         <v>124843</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.2782</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>284421</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.2782</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>112855</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.4835</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>280275</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.4835</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -8747,10 +8747,10 @@
         <v>117603</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>268134.8</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.28</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>116794</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.3952</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>279742.1</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.3952</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1007</v>
@@ -8791,10 +8791,10 @@
         <v>115919</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>260354.8</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2.246</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1238</v>
@@ -8813,10 +8813,10 @@
         <v>119687</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.5048</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>299789</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.5048</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>234</v>
@@ -8835,10 +8835,10 @@
         <v>146010</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.5166</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>367444.5</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.5166</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>144</v>
@@ -8857,10 +8857,10 @@
         <v>96697</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2.5633</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>247863.5</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2.5633</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>101</v>
@@ -8879,10 +8879,10 @@
         <v>88888</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.8936</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>168320</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.8936</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8901,10 +8901,10 @@
         <v>74979</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2.7325</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>204883.3</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2.7325</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -8923,10 +8923,10 @@
         <v>67194</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2.6442</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>177672.6</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2.6442</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>61795</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2.6351</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>162838.1</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2.6351</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -8967,10 +8967,10 @@
         <v>51971</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.4875</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>129276</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.4875</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -8989,10 +8989,10 @@
         <v>50161</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2.8489</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>142906</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2.8489</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>45152</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.2146</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>145145.2</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3.2146</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -9033,10 +9033,10 @@
         <v>41766</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2.9736</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>124195.8</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2.9736</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -9055,10 +9055,10 @@
         <v>35781</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.1633</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>113185</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.1633</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9077,10 +9077,10 @@
         <v>32287</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.6924</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>119218</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.6924</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9099,10 +9099,10 @@
         <v>28975</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4.0455</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>117218</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4.0455</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9121,10 +9121,10 @@
         <v>25976</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4.2662</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>110818.5</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4.2662</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9143,10 +9143,10 @@
         <v>22208</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.2077</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>71236.5</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.2077</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9165,10 +9165,10 @@
         <v>17973</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>64485.5</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.588</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         <v>15025</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.9605</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>44482</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.9605</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9209,10 +9209,10 @@
         <v>12143</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.2713</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>64009</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5.2713</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9231,10 +9231,10 @@
         <v>10544</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>37821</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.587</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9253,10 +9253,10 @@
         <v>8951</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.6819</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>32957</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.6819</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9275,10 +9275,10 @@
         <v>11347</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.6071</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>40930</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.6071</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9297,10 +9297,10 @@
         <v>7840</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.0079</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>31422</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.0079</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9319,10 +9319,10 @@
         <v>7468</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.0793</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>22996</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.0793</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9341,10 +9341,10 @@
         <v>6733</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.2099</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>21612</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.2099</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9363,10 +9363,10 @@
         <v>6283</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.8962</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18197</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.8962</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9385,10 +9385,10 @@
         <v>4800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.7083</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.7083</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>2200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.7273</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.7273</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>1500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9451,10 +9451,10 @@
         <v>1500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>150</v>
@@ -9473,10 +9473,10 @@
         <v>1500</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3250</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.1667</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>23</v>
@@ -9495,10 +9495,10 @@
         <v>1500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.8667</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2800</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.8667</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>29</v>
@@ -9517,10 +9517,10 @@
         <v>1500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.0667</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3100</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.0667</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>44</v>
@@ -9539,10 +9539,10 @@
         <v>1600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.0625</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3300</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.0625</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>1700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.7647</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.7647</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9583,10 +9583,10 @@
         <v>1800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.7778</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3200</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.7778</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9605,10 +9605,10 @@
         <v>1900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.8421</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3500</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.8421</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9627,10 +9627,10 @@
         <v>2000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>3000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9671,10 +9671,10 @@
         <v>3000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9693,10 +9693,10 @@
         <v>2500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.6</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>2500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>2500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.6</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9756,10 +9756,10 @@
         <v>2500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9777,10 +9777,10 @@
         <v>2500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>4400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9819,10 +9819,10 @@
         <v>4400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.8182</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10158,7 +10158,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10237,10 +10237,10 @@
         <v>174080</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>360000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2.068</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>81997.55</v>
@@ -10259,10 +10259,10 @@
         <v>166495</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.0121</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>335000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2.0121</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>69779.09</v>
@@ -10281,10 +10281,10 @@
         <v>153520</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.117</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>325000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.117</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>78089.87</v>
@@ -10303,10 +10303,10 @@
         <v>141790</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.022</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>286706</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.022</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>63491.96</v>
@@ -10325,10 +10325,10 @@
         <v>124553</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.8065</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>225000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.8065</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>88052.77</v>
@@ -10347,10 +10347,10 @@
         <v>111775</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.9235</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.9235</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>52769.68</v>
@@ -10369,10 +10369,10 @@
         <v>92013</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.2823</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>210000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.2823</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>45320.26</v>
@@ -10391,10 +10391,10 @@
         <v>86853</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.2452</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>195000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2.2452</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>58850.25</v>
@@ -10413,10 +10413,10 @@
         <v>71820</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.6455</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>190000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.6455</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>38156.42</v>
@@ -10435,10 +10435,10 @@
         <v>69395</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.6055</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>180807</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.6055</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>25720.32</v>
@@ -10457,10 +10457,10 @@
         <v>63902</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3.3198</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>212140</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3.3198</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>26831</v>
@@ -10479,10 +10479,10 @@
         <v>55202</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3.6812</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>203212</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3.6812</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>32137</v>
@@ -10501,10 +10501,10 @@
         <v>46838</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3.9122</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>183240</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3.9122</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>27342</v>
@@ -10523,10 +10523,10 @@
         <v>41393</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.3037</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>178142</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.3037</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>27369</v>
@@ -10545,10 +10545,10 @@
         <v>36674</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4.8344</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>177298</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4.8344</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>22915</v>
@@ -10567,10 +10567,10 @@
         <v>32887</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.1965</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>170897</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.1965</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>16452</v>
@@ -10589,10 +10589,10 @@
         <v>28680</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6.0172</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>172572</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6.0172</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>8557</v>
@@ -10611,10 +10611,10 @@
         <v>20897</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6.2025</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>129614</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6.2025</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>8620</v>
@@ -10633,10 +10633,10 @@
         <v>19700</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7.614199999999999</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7.614199999999999</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4467</v>
@@ -10655,10 +10655,10 @@
         <v>16800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>7.5</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>8697</v>
@@ -10677,10 +10677,10 @@
         <v>16000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8.125</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>3381</v>
@@ -10699,10 +10699,10 @@
         <v>14000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.571399999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.571399999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3140</v>
@@ -10721,10 +10721,10 @@
         <v>11770</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.855600000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.855600000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>988</v>
@@ -10743,10 +10743,10 @@
         <v>11100</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10.4505</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10.4505</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4210.4</v>
@@ -10765,10 +10765,10 @@
         <v>10667</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>11.2496</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>11.2496</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1603</v>
@@ -10787,10 +10787,10 @@
         <v>7207</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>16.6505</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>16.6505</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1466</v>
@@ -10809,10 +10809,10 @@
         <v>5712</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>20.1331</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>115000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>20.1331</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>627</v>
@@ -10831,10 +10831,10 @@
         <v>5598</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>20.5431</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>115000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>20.5431</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1002</v>
@@ -10853,10 +10853,10 @@
         <v>5362</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>20.5147</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>20.5147</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>100</v>
@@ -10875,10 +10875,10 @@
         <v>7259</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.5312</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.5312</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>32</v>
@@ -10897,10 +10897,10 @@
         <v>7645</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>15.0425</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>115000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>15.0425</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>60</v>
@@ -10919,10 +10919,10 @@
         <v>56333</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.1302</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.1302</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>55</v>
@@ -10941,10 +10941,10 @@
         <v>55633</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.1929</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>122000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.1929</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -10963,10 +10963,10 @@
         <v>54133</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.1244</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>115000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.1244</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -10985,10 +10985,10 @@
         <v>54583</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.0702</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>113000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.0702</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -11007,10 +11007,10 @@
         <v>54633</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.0134</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.0134</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -11029,10 +11029,10 @@
         <v>54250</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.0276</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.0276</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>200</v>
@@ -11051,10 +11051,10 @@
         <v>54000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.037</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>100</v>
@@ -11073,10 +11073,10 @@
         <v>54583</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.0153</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.0153</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>21</v>
@@ -11095,10 +11095,10 @@
         <v>53750</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.0837</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>112000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.0837</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11117,10 +11117,10 @@
         <v>53333</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.3438</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.3438</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>53000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.2642</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.2642</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11161,10 +11161,10 @@
         <v>53000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.3019</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>122000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.3019</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11183,10 +11183,10 @@
         <v>53833</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.2663</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>122000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.2663</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11205,10 +11205,10 @@
         <v>55000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2.7273</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2.7273</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>55000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.3636</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.3636</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11249,10 +11249,10 @@
         <v>56000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.6786</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.6786</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11271,10 +11271,10 @@
         <v>55000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.4545</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>135000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.4545</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11293,10 +11293,10 @@
         <v>54167</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>117000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.16</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>53333</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.0625</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.0625</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11337,10 +11337,10 @@
         <v>53000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.0755</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.0755</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11359,10 +11359,10 @@
         <v>51667</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.1948</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>113400</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.1948</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>50417</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.1823</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>110025</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.1823</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11403,10 +11403,10 @@
         <v>47733</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.1578</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>103000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.1578</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11425,10 +11425,10 @@
         <v>46667</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>84000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.8</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11447,10 +11447,10 @@
         <v>46667</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.0571</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>96000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.0571</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11469,10 +11469,10 @@
         <v>49833</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.7659</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>88000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.7659</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11490,10 +11490,10 @@
         <v>50000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.6</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>49667</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.6309</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>81000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.6309</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11532,10 +11532,10 @@
         <v>49500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.7374</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>86000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.7374</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11553,10 +11553,10 @@
         <v>49350</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.6634</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>82090</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.6634</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11574,10 +11574,10 @@
         <v>48600</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.7475</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>84930</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.7475</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11595,10 +11595,10 @@
         <v>47950</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.6788</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>80500</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.6788</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11934,7 +11934,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12013,10 +12013,10 @@
         <v>44626</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4.3024</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>192000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4.3024</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>407.67</v>
@@ -12035,10 +12035,10 @@
         <v>46232</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3.7853</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3.7853</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>100</v>
@@ -12057,10 +12057,10 @@
         <v>43735</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3.6813</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>161000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3.6813</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>418.56</v>
@@ -12079,10 +12079,10 @@
         <v>43328</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3.2404</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>140400</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3.2404</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>451.62</v>
@@ -12101,10 +12101,10 @@
         <v>40801</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3.0637</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3.0637</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>358.51</v>
@@ -12123,10 +12123,10 @@
         <v>36819</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4.1284</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>152000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4.1284</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>21</v>
@@ -12145,10 +12145,10 @@
         <v>35277</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.8347</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.8347</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>40.08</v>
@@ -12167,10 +12167,10 @@
         <v>30964</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.9066</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2.9066</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>281.15</v>
@@ -12189,10 +12189,10 @@
         <v>27941</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3.221</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>189.15</v>
@@ -12211,10 +12211,10 @@
         <v>24404</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.8684</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>70000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.8684</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>780.11</v>
@@ -12233,10 +12233,10 @@
         <v>18995</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.527</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>48000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.527</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>356</v>
@@ -12255,10 +12255,10 @@
         <v>18256</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.1943</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>40058.37</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.1943</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>379</v>
@@ -12277,10 +12277,10 @@
         <v>16254</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.1519</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>34977.65</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.1519</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>74</v>
@@ -12299,10 +12299,10 @@
         <v>15451</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.0859</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>32229.17</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.0859</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>520</v>
@@ -12321,10 +12321,10 @@
         <v>12600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.0635</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>26000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.0635</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>237</v>
@@ -12343,10 +12343,10 @@
         <v>11100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.1622</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>24000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2.1622</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12365,10 +12365,10 @@
         <v>14067</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.9905</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>28000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.9905</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>19</v>
@@ -12387,10 +12387,10 @@
         <v>9700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.6804</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.6804</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>753</v>
@@ -12409,10 +12409,10 @@
         <v>9600</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.5104</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>14500</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.5104</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>599</v>
@@ -12431,10 +12431,10 @@
         <v>9230</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>14500</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.571</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>571</v>
@@ -12453,10 +12453,10 @@
         <v>8900</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.5169</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13500</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.5169</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>292</v>
@@ -12475,10 +12475,10 @@
         <v>8650</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.6185</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.6185</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>141</v>
@@ -12497,10 +12497,10 @@
         <v>7855</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.5913</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12500</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.5913</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>304</v>
@@ -12519,10 +12519,10 @@
         <v>7808</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.4524</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>11340</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.4524</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>160</v>
@@ -12541,10 +12541,10 @@
         <v>7565</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.4276</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10800</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.4276</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12563,10 +12563,10 @@
         <v>7400</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.3784</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.3784</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -12585,10 +12585,10 @@
         <v>7575</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.3861</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>10500</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.3861</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12607,10 +12607,10 @@
         <v>6741</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.6318</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.6318</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>37</v>
@@ -12629,10 +12629,10 @@
         <v>6780</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.4454</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9800</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.4454</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>71</v>
@@ -12651,10 +12651,10 @@
         <v>6850</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.3139</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.3139</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -12673,10 +12673,10 @@
         <v>6950</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.4101</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9800</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.4101</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12695,10 +12695,10 @@
         <v>6952</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.0069</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.0069</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -12717,10 +12717,10 @@
         <v>6955</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.294</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12739,10 +12739,10 @@
         <v>6400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.3047</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8350</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.3047</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12761,10 +12761,10 @@
         <v>5600</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.2679</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>7100</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.2679</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12783,10 +12783,10 @@
         <v>5800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.3103</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7600</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.3103</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12805,10 +12805,10 @@
         <v>4600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.1957</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5500</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.1957</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12827,10 +12827,10 @@
         <v>5000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12849,10 +12849,10 @@
         <v>5500</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6600</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>17</v>
@@ -12868,10 +12868,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="n">
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="n">
         <v>6550</v>
       </c>
-      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -12886,10 +12886,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="n">
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="n">
         <v>6300</v>
       </c>
-      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>12</v>
       </c>
@@ -12904,10 +12904,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="n">
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
         <v>5975</v>
       </c>
-      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>147</v>
       </c>
@@ -12922,10 +12922,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="n">
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
         <v>5650</v>
       </c>
-      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>319</v>
       </c>
@@ -12940,10 +12940,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="n">
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
         <v>5200</v>
       </c>
-      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>316</v>
       </c>
@@ -12958,10 +12958,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
         <v>4895</v>
       </c>
-      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>1000</v>
       </c>
@@ -12976,10 +12976,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
         <v>4500</v>
       </c>
-      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>149</v>
       </c>
@@ -12994,10 +12994,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
         <v>4450</v>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>18</v>
       </c>
@@ -13012,10 +13012,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
         <v>3500</v>
       </c>
-      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>10</v>
       </c>
@@ -13030,10 +13030,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
         <v>3050</v>
       </c>
-      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>152</v>
       </c>
@@ -13048,10 +13048,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
         <v>2770</v>
       </c>
-      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>115</v>
       </c>
@@ -13066,10 +13066,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -13084,10 +13084,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -13102,10 +13102,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -13120,10 +13120,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -13138,10 +13138,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -13156,10 +13156,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -13174,10 +13174,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -13191,10 +13191,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -13208,10 +13208,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -13225,10 +13225,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -13242,10 +13242,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -13259,10 +13259,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -13276,10 +13276,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>

--- a/Resultados/Mercado mundial - Nueces de nogal con cáscara.xlsx
+++ b/Resultados/Mercado mundial - Nueces de nogal con cáscara.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chile" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="United States of America" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Iran (Islamic Republic of)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Chile" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Irán (República Islámica del)'!$B$12:$B$74</f>
+              <f>'Iran (Islamic Republic of)'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Irán (República Islámica del)'!$C$12:$C$74</f>
+              <f>'Iran (Islamic Republic of)'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1006,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,10 +1088,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>1251957</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3988642.91</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.1859</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3988642.91</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>481458.39</v>
@@ -2160,10 +2160,10 @@
         <v>1234530</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3903413.9</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3.1619</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3903413.9</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>425169.42</v>
@@ -2182,10 +2182,10 @@
         <v>1126358</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3521764.39</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3.1267</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3521764.39</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>409878.35</v>
@@ -2204,10 +2204,10 @@
         <v>1094725</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3453596.05</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3.1548</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3453596.05</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>355657.45</v>
@@ -2226,10 +2226,10 @@
         <v>1024002</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3114431.3</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3.0414</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3114431.3</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>443501.44</v>
@@ -2248,10 +2248,10 @@
         <v>944744</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2991670.67</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3.1666</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2991670.67</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>263917.88</v>
@@ -2270,10 +2270,10 @@
         <v>942921</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3073361.72</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3.2594</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3073361.72</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>251479.41</v>
@@ -2292,10 +2292,10 @@
         <v>972036</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3102215.75</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3.1915</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3102215.75</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>238189.93</v>
@@ -2314,10 +2314,10 @@
         <v>994034</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3057259.09</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3.0756</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3057259.09</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>189989.24</v>
@@ -2336,10 +2336,10 @@
         <v>925324</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2803597.6</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3.0299</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2803597.6</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>192076.11</v>
@@ -2358,10 +2358,10 @@
         <v>842228</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2442678.78</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.9003</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2442678.78</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>253305</v>
@@ -2380,10 +2380,10 @@
         <v>789607</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2368722.7</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.9999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2368722.7</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>227771</v>
@@ -2402,10 +2402,10 @@
         <v>1073174</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3210852.52</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.9919</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3210852.52</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>212980</v>
@@ -2424,10 +2424,10 @@
         <v>958779</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2780468.62</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.9</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2780468.62</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>198973</v>
@@ -2446,10 +2446,10 @@
         <v>830213</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2489066.03</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.9981</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2489066.03</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>177671</v>
@@ -2468,10 +2468,10 @@
         <v>783821</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2255247.39</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.8772</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2255247.39</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>140188</v>
@@ -2490,10 +2490,10 @@
         <v>700999</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1995134.48</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.8461</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1995134.48</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>112192</v>
@@ -2512,10 +2512,10 @@
         <v>680003</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1867375.56</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.7461</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1867375.56</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>113594</v>
@@ -2534,10 +2534,10 @@
         <v>631005</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1816976.56</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2.8795</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1816976.56</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>91234</v>
@@ -2556,10 +2556,10 @@
         <v>610847</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1569648.96</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2.5696</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1569648.96</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>119133</v>
@@ -2578,10 +2578,10 @@
         <v>597973</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1591455.94</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2.6614</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1591455.94</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>91509</v>
@@ -2600,10 +2600,10 @@
         <v>570425</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1415575.13</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2.4816</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1415575.13</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>95062</v>
@@ -2622,10 +2622,10 @@
         <v>559914</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1327394.47</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2.3707</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1327394.47</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>78535</v>
@@ -2644,10 +2644,10 @@
         <v>544802</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1287662.57</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.3635</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1287662.57</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>88029.19</v>
@@ -2666,10 +2666,10 @@
         <v>527187</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1259557.23</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2.3892</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1259557.23</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>85610.27</v>
@@ -2688,10 +2688,10 @@
         <v>515558</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1196367.98</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2.3205</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1196367.98</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>68917.53</v>
@@ -2710,10 +2710,10 @@
         <v>465459</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1129980.58</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2.4277</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1129980.58</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>60149.75</v>
@@ -2732,10 +2732,10 @@
         <v>465086</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1096252.12</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.3571</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1096252.12</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>70177</v>
@@ -2754,10 +2754,10 @@
         <v>449684</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1063926.03</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2.3659</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1063926.03</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>68295</v>
@@ -2776,10 +2776,10 @@
         <v>432949</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1055641.01</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.4383</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1055641.01</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>76620</v>
@@ -2798,10 +2798,10 @@
         <v>441280</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1107485.03</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.5097</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1107485.03</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>61043</v>
@@ -2820,10 +2820,10 @@
         <v>421113</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>940243.8</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.2328</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>940243.8</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>61950</v>
@@ -2842,10 +2842,10 @@
         <v>418369</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>930139.8</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.2232</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>930139.8</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>68914</v>
@@ -2864,10 +2864,10 @@
         <v>405133</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>890515</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.1981</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>890515</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>70982</v>
@@ -2886,10 +2886,10 @@
         <v>404558</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>919535</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.2729</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>919535</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>68165</v>
@@ -2908,10 +2908,10 @@
         <v>406471</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>867914</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.1352</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>867914</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>67157</v>
@@ -2930,10 +2930,10 @@
         <v>397147</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>874537</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.202</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>874537</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>68881</v>
@@ -2952,10 +2952,10 @@
         <v>398237</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>842476</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.1155</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>842476</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>63234</v>
@@ -2974,10 +2974,10 @@
         <v>385884</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>836056</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.1666</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>836056</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>63873</v>
@@ -2996,10 +2996,10 @@
         <v>176299</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>838407</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.7556</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>838407</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>59717</v>
@@ -3018,10 +3018,10 @@
         <v>175373</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>844051</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4.8129</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>844051</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>51766</v>
@@ -3040,10 +3040,10 @@
         <v>176863</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>874377</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.9438</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>874377</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>64009</v>
@@ -3062,10 +3062,10 @@
         <v>174082</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>780722</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.4848</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>780722</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>75887</v>
@@ -3084,10 +3084,10 @@
         <v>173874</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>795415</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.5747</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>795415</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>64964</v>
@@ -3106,10 +3106,10 @@
         <v>173991</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>790726</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.5446</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>790726</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>54611</v>
@@ -3128,10 +3128,10 @@
         <v>177724</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>743899</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.1857</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>743899</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>52872</v>
@@ -3150,10 +3150,10 @@
         <v>169429</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>716599</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4.2295</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>716599</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>52360</v>
@@ -3172,10 +3172,10 @@
         <v>169733</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>743482</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4.3803</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>743482</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>63856</v>
@@ -3194,10 +3194,10 @@
         <v>166001</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>732768</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.4142</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>732768</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>55222</v>
@@ -3216,10 +3216,10 @@
         <v>158056</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>668099</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4.227</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>668099</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>41931</v>
@@ -3238,10 +3238,10 @@
         <v>160114</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>791963</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.9462</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>791963</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>44198</v>
@@ -3260,10 +3260,10 @@
         <v>164461</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>635637</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3.865</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>635637</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>40196</v>
@@ -3282,10 +3282,10 @@
         <v>157709</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>678585</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4.3028</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>678585</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>43590</v>
@@ -3304,10 +3304,10 @@
         <v>158954</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>654660</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4.118600000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>654660</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>32117</v>
@@ -3326,10 +3326,10 @@
         <v>153788</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>619973</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4.0313</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>619973</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>31853</v>
@@ -3348,10 +3348,10 @@
         <v>158000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>591254</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.7421</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>591254</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>32838</v>
@@ -3370,10 +3370,10 @@
         <v>156297</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>562147</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3.5967</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>562147</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>32786</v>
@@ -3391,10 +3391,10 @@
         <v>161715</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>584392</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.6137</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>584392</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>33382</v>
@@ -3412,10 +3412,10 @@
         <v>157435</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>533463</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3.3885</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>533463</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>34412</v>
@@ -3433,10 +3433,10 @@
         <v>158906</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>547407</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.4448</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>547407</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>27616</v>
@@ -3454,10 +3454,10 @@
         <v>158248</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>529130</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3.3437</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>529130</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>25348</v>
@@ -3475,10 +3475,10 @@
         <v>160074</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>530187</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3.3121</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>530187</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>28821</v>
@@ -3496,10 +3496,10 @@
         <v>161347</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>497077</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3.0808</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>497077</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>24159</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Rumanía</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Kirguistán</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Kirguistán</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Argelia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>355995</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.9326</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2791.43</v>
@@ -5033,10 +5033,10 @@
         <v>359845</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3.8906</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4054.25</v>
@@ -5055,10 +5055,10 @@
         <v>285826</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3.8485</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3945.79</v>
@@ -5077,10 +5077,10 @@
         <v>286013</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3.846</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5526.42</v>
@@ -5099,10 +5099,10 @@
         <v>267939</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3.7322</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4407.14</v>
@@ -5121,10 +5121,10 @@
         <v>229930</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3.6968</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>850000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4868.38</v>
@@ -5143,10 +5143,10 @@
         <v>272791</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3.6658</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5176.35</v>
@@ -5165,10 +5165,10 @@
         <v>290665</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3.6468</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1060000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>4801.79</v>
@@ -5187,10 +5187,10 @@
         <v>268875</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3.7192</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5664.56</v>
@@ -5209,10 +5209,10 @@
         <v>249312</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3.6099</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>900000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8284.93</v>
@@ -5231,10 +5231,10 @@
         <v>224455</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3.4751</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>780000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>12923</v>
@@ -5253,10 +5253,10 @@
         <v>217487</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3.3105</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>720000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>17732</v>
@@ -5275,10 +5275,10 @@
         <v>508528</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1655508</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3.2555</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1655508</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>15513</v>
@@ -5297,10 +5297,10 @@
         <v>402737</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1284351</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3.1891</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1284351</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>14962</v>
@@ -5319,10 +5319,10 @@
         <v>305000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>979366</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3.211</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>979366</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>11834</v>
@@ -5341,10 +5341,10 @@
         <v>275000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>828635</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3.0132</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>828635</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>5499</v>
@@ -5363,10 +5363,10 @@
         <v>210000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>629986</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.9999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>629986</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2006</v>
@@ -5385,10 +5385,10 @@
         <v>188000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>475455</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.529</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>475455</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1010</v>
@@ -5407,10 +5407,10 @@
         <v>186000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>499074</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2.6832</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>499074</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>652</v>
@@ -5429,10 +5429,10 @@
         <v>185000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>436862</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2.3614</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>436862</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>249</v>
@@ -5451,10 +5451,10 @@
         <v>180000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>393529</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2.1863</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>393529</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>218</v>
@@ -5473,10 +5473,10 @@
         <v>176000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>343305</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.9506</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>343305</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1043</v>
@@ -5495,10 +5495,10 @@
         <v>175000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>252347</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.442</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>252347</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>494</v>
@@ -5517,10 +5517,10 @@
         <v>168000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>309875</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.8445</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>309875</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>731.98</v>
@@ -5539,10 +5539,10 @@
         <v>165000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>274246</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.6621</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>274246</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>164000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>269203</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.6415</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>269203</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>162</v>
@@ -5583,10 +5583,10 @@
         <v>160000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>249834</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.5615</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>249834</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>122</v>
@@ -5605,10 +5605,10 @@
         <v>150000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>237989</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.5866</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>237989</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>25</v>
@@ -5627,10 +5627,10 @@
         <v>150000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>230667</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.5378</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>230667</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>6</v>
@@ -5649,10 +5649,10 @@
         <v>140000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>209997</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>209997</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24</v>
@@ -5671,10 +5671,10 @@
         <v>144000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>216000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>216000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>20</v>
@@ -5693,10 +5693,10 @@
         <v>71000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>163862</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.3079</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>163862</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>90</v>
@@ -5715,10 +5715,10 @@
         <v>73494</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>151644</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.0634</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>151644</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5737,10 +5737,10 @@
         <v>68000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>149560</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.1994</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>149560</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>2</v>
@@ -5759,10 +5759,10 @@
         <v>72000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>160054</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.223</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>160054</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2</v>
@@ -5781,10 +5781,10 @@
         <v>77000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>177098</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.3</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>177098</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>19</v>
@@ -5803,10 +5803,10 @@
         <v>65000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>147000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.2615</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>147000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>61000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>136335</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.235</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>136335</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5847,10 +5847,10 @@
         <v>55000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>121917</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.2167</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>121917</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="n">
+      <c r="D51" s="29" t="n">
         <v>128200</v>
       </c>
+      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -5884,10 +5884,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="n">
+      <c r="D52" s="29" t="n">
         <v>119000</v>
       </c>
+      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
@@ -5902,10 +5902,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
+      <c r="D53" s="29" t="n">
         <v>103000</v>
       </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -5920,10 +5920,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
+      <c r="D54" s="29" t="n">
         <v>107000</v>
       </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -5938,10 +5938,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
+      <c r="D55" s="29" t="n">
         <v>119000</v>
       </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -5956,10 +5956,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
+      <c r="D56" s="29" t="n">
         <v>91000</v>
       </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -5974,10 +5974,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
+      <c r="D57" s="29" t="n">
         <v>113000</v>
       </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -5992,10 +5992,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
+      <c r="D58" s="29" t="n">
         <v>76000</v>
       </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -6010,10 +6010,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
+      <c r="D59" s="29" t="n">
         <v>71000</v>
       </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -6028,10 +6028,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
+      <c r="D60" s="29" t="n">
         <v>65000</v>
       </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -6046,10 +6046,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
+      <c r="D61" s="29" t="n">
         <v>80000</v>
       </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -6064,10 +6064,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
+      <c r="D62" s="29" t="n">
         <v>81000</v>
       </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -6082,10 +6082,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
+      <c r="D63" s="29" t="n">
         <v>72000</v>
       </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -6100,10 +6100,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
+      <c r="D64" s="29" t="n">
         <v>70000</v>
       </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -6118,10 +6118,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
+      <c r="D65" s="29" t="n">
         <v>51000</v>
       </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -6136,10 +6136,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
+      <c r="D66" s="29" t="n">
         <v>47000</v>
       </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -6154,10 +6154,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
+      <c r="D67" s="29" t="n">
         <v>40000</v>
       </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -6172,10 +6172,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
+      <c r="D68" s="29" t="n">
         <v>41000</v>
       </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -6189,10 +6189,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
+      <c r="D69" s="29" t="n">
         <v>42000</v>
       </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -6206,10 +6206,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
+      <c r="D70" s="29" t="n">
         <v>48000</v>
       </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -6223,10 +6223,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
+      <c r="D71" s="29" t="n">
         <v>42000</v>
       </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -6240,10 +6240,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
+      <c r="D72" s="29" t="n">
         <v>46000</v>
       </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -6257,10 +6257,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
+      <c r="D73" s="29" t="n">
         <v>40000</v>
       </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -6274,10 +6274,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
+      <c r="D74" s="29" t="n">
         <v>40000</v>
       </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6691,10 +6691,10 @@
         <v>155806</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>747520</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4.797800000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>747520</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.9</v>
@@ -6713,10 +6713,10 @@
         <v>161876</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>685830</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4.236800000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>685830</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1348.35</v>
@@ -6735,10 +6735,10 @@
         <v>159853</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>666780</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4.1712</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>666780</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1237.52</v>
@@ -6757,10 +6757,10 @@
         <v>153782</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>716680</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>4.660399999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>716680</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>463.07</v>
@@ -6779,10 +6779,10 @@
         <v>147710</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>594206.1800000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4.0228</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>594206.1800000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>529.5599999999999</v>
@@ -6801,10 +6801,10 @@
         <v>141640</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>615980</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4.3489</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>615980</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>388.94</v>
@@ -6823,10 +6823,10 @@
         <v>135570</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>571530</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4.2158</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>571530</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>982.35</v>
@@ -6845,10 +6845,10 @@
         <v>127480</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>625050</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4.9031</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>625050</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>782.83</v>
@@ -6867,10 +6867,10 @@
         <v>121406</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>549754</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4.5282</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>549754</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>125.88</v>
@@ -6889,10 +6889,10 @@
         <v>117359</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>518002</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4.4138</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>518002</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>798.95</v>
@@ -6911,10 +6911,10 @@
         <v>113311</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>446334</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3.939</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>446334</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1023</v>
@@ -6933,10 +6933,10 @@
         <v>109269</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>497000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4.5484</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>497000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>95</v>
@@ -6955,10 +6955,10 @@
         <v>107242</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>418212</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3.8997</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>418212</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>156</v>
@@ -6977,10 +6977,10 @@
         <v>103195</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>457221</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.4307</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>457221</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>8</v>
@@ -6999,10 +6999,10 @@
         <v>97125</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>396440</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4.0818</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>396440</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>74</v>
@@ -7021,10 +7021,10 @@
         <v>93078</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>395530</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4.2494</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>395530</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>788</v>
@@ -7043,10 +7043,10 @@
         <v>88222</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>297555</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3.3728</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>297555</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2</v>
@@ -7065,10 +7065,10 @@
         <v>87007</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>317515</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3.6493</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>317515</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>6</v>
@@ -7087,10 +7087,10 @@
         <v>87007</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>322051</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3.7014</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>322051</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>62</v>
@@ -7109,10 +7109,10 @@
         <v>86603</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>294835</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3.4044</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>294835</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>66</v>
@@ -7131,10 +7131,10 @@
         <v>86198</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>295740</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3.4309</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>295740</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>80</v>
@@ -7153,10 +7153,10 @@
         <v>84984</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>255830</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3.0103</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>255830</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>42</v>
@@ -7175,10 +7175,10 @@
         <v>82556</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>276690</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3.3515</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>276690</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2</v>
@@ -7197,10 +7197,10 @@
         <v>78100</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>216820</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.7762</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>216820</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -7219,10 +7219,10 @@
         <v>79130</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>256730</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3.2444</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>256730</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -7241,10 +7241,10 @@
         <v>79130</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>205930</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2.6024</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>205930</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>19</v>
@@ -7263,10 +7263,10 @@
         <v>79130</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>244800</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3.0936</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>244800</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>36</v>
@@ -7285,10 +7285,10 @@
         <v>77700</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>188700</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.4286</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>188700</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -7307,10 +7307,10 @@
         <v>78100</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>212300</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2.7183</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>212300</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -7329,10 +7329,10 @@
         <v>76480</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>210460</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.7518</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>210460</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>78</v>
@@ -7351,10 +7351,10 @@
         <v>74870</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>235900</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.1508</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>235900</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>155</v>
@@ -7373,10 +7373,10 @@
         <v>72030</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>184160</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.5567</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>184160</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>15</v>
@@ -7395,10 +7395,10 @@
         <v>73250</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>235000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.2082</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>235000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7417,10 +7417,10 @@
         <v>73250</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>205900</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.8109</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>205900</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>72</v>
@@ -7439,10 +7439,10 @@
         <v>72440</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>207700</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.8672</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>207700</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1</v>
@@ -7461,10 +7461,10 @@
         <v>71630</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>189600</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.6469</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>189600</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>2</v>
@@ -7483,10 +7483,10 @@
         <v>71220</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>224000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.1452</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>224000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>38</v>
@@ -7505,10 +7505,10 @@
         <v>72840</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>163300</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.2419</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>163300</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>16</v>
@@ -7527,10 +7527,10 @@
         <v>72440</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>198700</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.743</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>198700</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>72030</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>193200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.6822</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>193200</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7571,10 +7571,10 @@
         <v>71220</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>180525</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.5348</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>180525</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>4</v>
@@ -7593,10 +7593,10 @@
         <v>72030</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>212280</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.9471</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>212280</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7615,10 +7615,10 @@
         <v>70860</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>204120</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.8806</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>204120</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7637,10 +7637,10 @@
         <v>72800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>178720</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.4549</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>178720</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7659,10 +7659,10 @@
         <v>72520</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>188693</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2.6019</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>188693</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7681,10 +7681,10 @@
         <v>73410</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>145149</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.9772</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>145149</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7703,10 +7703,10 @@
         <v>73170</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>174632</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.3867</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>174632</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>70540</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>166649</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.3625</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>166649</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7747,10 +7747,10 @@
         <v>68920</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>180801</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.6233</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>180801</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7769,10 +7769,10 @@
         <v>67900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>141974</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.0909</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>141974</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>66040</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>158760</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.404</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>158760</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7813,10 +7813,10 @@
         <v>66000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>105959</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.6054</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>105959</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7835,10 +7835,10 @@
         <v>63290</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>123740</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.9551</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>123740</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7857,10 +7857,10 @@
         <v>62000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>101423</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.6359</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>101423</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7879,10 +7879,10 @@
         <v>60860</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>95707</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.5726</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>95707</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7901,10 +7901,10 @@
         <v>59570</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>86726</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.4559</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>86726</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7923,10 +7923,10 @@
         <v>59250</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>69308</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.1698</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>69308</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7944,10 +7944,10 @@
         <v>58920</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>87089</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.4781</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>87089</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>56860</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>72846</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.2811</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>72846</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -7986,10 +7986,10 @@
         <v>57950</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>81828</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.412</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>81828</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>7</v>
@@ -8007,10 +8007,10 @@
         <v>57020</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>75387</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.3221</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>75387</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>4</v>
@@ -8028,10 +8028,10 @@
         <v>57790</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>72484</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.2543</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>72484</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>5</v>
@@ -8049,10 +8049,10 @@
         <v>57590</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>61235</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.0633</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>61235</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>25</v>
@@ -8388,7 +8388,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8467,10 +8467,10 @@
         <v>61383</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>380998.54</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.206899999999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>380998.54</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>30613.78</v>
@@ -8489,10 +8489,10 @@
         <v>55689</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>355039.94</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.3754</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>355039.94</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>38904.03</v>
@@ -8511,10 +8511,10 @@
         <v>58987</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>385125.24</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.529</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>385125.24</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8531,10 +8531,10 @@
         <v>51437</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>363279.98</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>7.062600000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>363279.98</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8551,10 +8551,10 @@
         <v>44780</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>321073.55</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7.17</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>321073.55</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>41679.39</v>
@@ -8573,10 +8573,10 @@
         <v>43186</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>304039.93</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7.0402</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>304039.93</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -8593,10 +8593,10 @@
         <v>53952</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>393598</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7.2953</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>393598</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>402</v>
@@ -8615,10 +8615,10 @@
         <v>71425</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>349192</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4.8889</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>349192</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6341</v>
@@ -8637,10 +8637,10 @@
         <v>142000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.9577</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>420000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5652.77</v>
@@ -8659,10 +8659,10 @@
         <v>141019</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>403158</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.8589</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>403158</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>7940</v>
@@ -8681,10 +8681,10 @@
         <v>109759</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>222610.2</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.0282</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>222610.2</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -8703,10 +8703,10 @@
         <v>124843</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>284421</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.2782</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>284421</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>112855</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>280275</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.4835</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>280275</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -8747,10 +8747,10 @@
         <v>117603</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>268134.8</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.28</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>268134.8</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>116794</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>279742.1</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.3952</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>279742.1</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1007</v>
@@ -8791,10 +8791,10 @@
         <v>115919</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>260354.8</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.246</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>260354.8</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1238</v>
@@ -8813,10 +8813,10 @@
         <v>119687</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>299789</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.5048</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>299789</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>234</v>
@@ -8835,10 +8835,10 @@
         <v>146010</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>367444.5</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.5166</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>367444.5</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>144</v>
@@ -8857,10 +8857,10 @@
         <v>96697</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>247863.5</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2.5633</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>247863.5</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>101</v>
@@ -8879,10 +8879,10 @@
         <v>88888</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>168320</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.8936</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>168320</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8901,10 +8901,10 @@
         <v>74979</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>204883.3</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2.7325</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>204883.3</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -8923,10 +8923,10 @@
         <v>67194</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>177672.6</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2.6442</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>177672.6</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>61795</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>162838.1</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2.6351</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>162838.1</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -8967,10 +8967,10 @@
         <v>51971</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>129276</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.4875</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>129276</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -8989,10 +8989,10 @@
         <v>50161</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>142906</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2.8489</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>142906</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>45152</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>145145.2</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.2146</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>145145.2</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -9033,10 +9033,10 @@
         <v>41766</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>124195.8</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2.9736</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>124195.8</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -9055,10 +9055,10 @@
         <v>35781</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>113185</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.1633</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>113185</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9077,10 +9077,10 @@
         <v>32287</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>119218</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.6924</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>119218</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9099,10 +9099,10 @@
         <v>28975</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>117218</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4.0455</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>117218</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9121,10 +9121,10 @@
         <v>25976</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>110818.5</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4.2662</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>110818.5</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9143,10 +9143,10 @@
         <v>22208</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>71236.5</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.2077</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>71236.5</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9165,10 +9165,10 @@
         <v>17973</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>64485.5</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.588</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>64485.5</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         <v>15025</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>44482</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.9605</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>44482</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9209,10 +9209,10 @@
         <v>12143</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>64009</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.2713</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>64009</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9231,10 +9231,10 @@
         <v>10544</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>37821</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.587</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>37821</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9253,10 +9253,10 @@
         <v>8951</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>32957</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.6819</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>32957</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9275,10 +9275,10 @@
         <v>11347</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>40930</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.6071</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>40930</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9297,10 +9297,10 @@
         <v>7840</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>31422</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.0079</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>31422</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9319,10 +9319,10 @@
         <v>7468</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>22996</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.0793</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>22996</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9341,10 +9341,10 @@
         <v>6733</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>21612</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.2099</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>21612</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9363,10 +9363,10 @@
         <v>6283</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18197</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.8962</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18197</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9385,10 +9385,10 @@
         <v>4800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.7083</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>2200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.7273</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>1500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9451,10 +9451,10 @@
         <v>1500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>150</v>
@@ -9473,10 +9473,10 @@
         <v>1500</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3250</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.1667</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3250</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>23</v>
@@ -9495,10 +9495,10 @@
         <v>1500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.8667</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2800</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>29</v>
@@ -9517,10 +9517,10 @@
         <v>1500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.0667</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3100</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>44</v>
@@ -9539,10 +9539,10 @@
         <v>1600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.0625</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3300</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>1700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.7647</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9583,10 +9583,10 @@
         <v>1800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.7778</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3200</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9605,10 +9605,10 @@
         <v>1900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.8421</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3500</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9627,10 +9627,10 @@
         <v>2000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>3000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9671,10 +9671,10 @@
         <v>3000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9693,10 +9693,10 @@
         <v>2500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.6</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>2500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>2500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.6</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9756,10 +9756,10 @@
         <v>2500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9777,10 +9777,10 @@
         <v>2500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>4400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9819,10 +9819,10 @@
         <v>4400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.8182</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10158,7 +10158,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10237,10 +10237,10 @@
         <v>174080</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2.068</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>360000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>81997.55</v>
@@ -10259,10 +10259,10 @@
         <v>166495</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.0121</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>335000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>69779.09</v>
@@ -10281,10 +10281,10 @@
         <v>153520</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>325000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.117</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>325000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>78089.87</v>
@@ -10303,10 +10303,10 @@
         <v>141790</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>286706</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.022</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>286706</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>63491.96</v>
@@ -10325,10 +10325,10 @@
         <v>124553</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>225000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.8065</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>225000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>88052.77</v>
@@ -10347,10 +10347,10 @@
         <v>111775</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.9235</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>52769.68</v>
@@ -10369,10 +10369,10 @@
         <v>92013</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>210000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.2823</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>210000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>45320.26</v>
@@ -10391,10 +10391,10 @@
         <v>86853</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.2452</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>195000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>58850.25</v>
@@ -10413,10 +10413,10 @@
         <v>71820</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>190000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.6455</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>190000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>38156.42</v>
@@ -10435,10 +10435,10 @@
         <v>69395</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>180807</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.6055</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>180807</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>25720.32</v>
@@ -10457,10 +10457,10 @@
         <v>63902</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>212140</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3.3198</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>212140</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>26831</v>
@@ -10479,10 +10479,10 @@
         <v>55202</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>203212</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3.6812</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>203212</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>32137</v>
@@ -10501,10 +10501,10 @@
         <v>46838</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>183240</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3.9122</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>183240</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>27342</v>
@@ -10523,10 +10523,10 @@
         <v>41393</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>178142</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.3037</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>178142</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>27369</v>
@@ -10545,10 +10545,10 @@
         <v>36674</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>177298</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4.8344</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>177298</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>22915</v>
@@ -10567,10 +10567,10 @@
         <v>32887</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>170897</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.1965</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>170897</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>16452</v>
@@ -10589,10 +10589,10 @@
         <v>28680</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>172572</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6.0172</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>172572</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>8557</v>
@@ -10611,10 +10611,10 @@
         <v>20897</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>129614</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6.2025</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>129614</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>8620</v>
@@ -10633,10 +10633,10 @@
         <v>19700</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7.614199999999999</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4467</v>
@@ -10655,10 +10655,10 @@
         <v>16800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7.5</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>8697</v>
@@ -10677,10 +10677,10 @@
         <v>16000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8.125</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>3381</v>
@@ -10699,10 +10699,10 @@
         <v>14000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.571399999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3140</v>
@@ -10721,10 +10721,10 @@
         <v>11770</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.855600000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>988</v>
@@ -10743,10 +10743,10 @@
         <v>11100</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10.4505</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4210.4</v>
@@ -10765,10 +10765,10 @@
         <v>10667</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>11.2496</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1603</v>
@@ -10787,10 +10787,10 @@
         <v>7207</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>16.6505</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1466</v>
@@ -10809,10 +10809,10 @@
         <v>5712</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>20.1331</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>115000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>627</v>
@@ -10831,10 +10831,10 @@
         <v>5598</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>20.5431</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>115000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1002</v>
@@ -10853,10 +10853,10 @@
         <v>5362</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>20.5147</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>100</v>
@@ -10875,10 +10875,10 @@
         <v>7259</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.5312</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>32</v>
@@ -10897,10 +10897,10 @@
         <v>7645</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>15.0425</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>115000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>60</v>
@@ -10919,10 +10919,10 @@
         <v>56333</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.1302</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>55</v>
@@ -10941,10 +10941,10 @@
         <v>55633</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>122000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.1929</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>122000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -10963,10 +10963,10 @@
         <v>54133</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.1244</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>115000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -10985,10 +10985,10 @@
         <v>54583</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>113000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.0702</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>113000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -11007,10 +11007,10 @@
         <v>54633</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.0134</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -11029,10 +11029,10 @@
         <v>54250</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.0276</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>200</v>
@@ -11051,10 +11051,10 @@
         <v>54000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.037</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>100</v>
@@ -11073,10 +11073,10 @@
         <v>54583</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.0153</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>21</v>
@@ -11095,10 +11095,10 @@
         <v>53750</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>112000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.0837</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>112000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11117,10 +11117,10 @@
         <v>53333</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.3438</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>53000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.2642</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11161,10 +11161,10 @@
         <v>53000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>122000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.3019</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>122000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11183,10 +11183,10 @@
         <v>53833</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>122000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.2663</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>122000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11205,10 +11205,10 @@
         <v>55000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2.7273</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>55000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.3636</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11249,10 +11249,10 @@
         <v>56000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.6786</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11271,10 +11271,10 @@
         <v>55000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.4545</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>135000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11293,10 +11293,10 @@
         <v>54167</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>117000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.16</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>117000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>53333</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.0625</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11337,10 +11337,10 @@
         <v>53000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.0755</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11359,10 +11359,10 @@
         <v>51667</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>113400</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.1948</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>113400</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>50417</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>110025</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.1823</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>110025</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11403,10 +11403,10 @@
         <v>47733</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.1578</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>103000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11425,10 +11425,10 @@
         <v>46667</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>84000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.8</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>84000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11447,10 +11447,10 @@
         <v>46667</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.0571</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>96000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11469,10 +11469,10 @@
         <v>49833</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>88000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.7659</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>88000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11490,10 +11490,10 @@
         <v>50000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.6</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>49667</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>81000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.6309</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>81000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11532,10 +11532,10 @@
         <v>49500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>86000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.7374</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>86000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11553,10 +11553,10 @@
         <v>49350</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>82090</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.6634</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>82090</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11574,10 +11574,10 @@
         <v>48600</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>84930</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.7475</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>84930</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11595,10 +11595,10 @@
         <v>47950</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>80500</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.6788</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>80500</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11934,7 +11934,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12013,10 +12013,10 @@
         <v>44626</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>192000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4.3024</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>192000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>407.67</v>
@@ -12035,10 +12035,10 @@
         <v>46232</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3.7853</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>100</v>
@@ -12057,10 +12057,10 @@
         <v>43735</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>161000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3.6813</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>161000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>418.56</v>
@@ -12079,10 +12079,10 @@
         <v>43328</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>140400</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3.2404</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>140400</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>451.62</v>
@@ -12101,10 +12101,10 @@
         <v>40801</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3.0637</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>358.51</v>
@@ -12123,10 +12123,10 @@
         <v>36819</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>152000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4.1284</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>152000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>21</v>
@@ -12145,10 +12145,10 @@
         <v>35277</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.8347</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>40.08</v>
@@ -12167,10 +12167,10 @@
         <v>30964</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.9066</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>281.15</v>
@@ -12189,10 +12189,10 @@
         <v>27941</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3.221</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>189.15</v>
@@ -12211,10 +12211,10 @@
         <v>24404</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.8684</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>70000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>780.11</v>
@@ -12233,10 +12233,10 @@
         <v>18995</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.527</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>48000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>356</v>
@@ -12255,10 +12255,10 @@
         <v>18256</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>40058.37</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.1943</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>40058.37</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>379</v>
@@ -12277,10 +12277,10 @@
         <v>16254</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>34977.65</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.1519</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>34977.65</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>74</v>
@@ -12299,10 +12299,10 @@
         <v>15451</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>32229.17</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.0859</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>32229.17</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>520</v>
@@ -12321,10 +12321,10 @@
         <v>12600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.0635</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>26000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>237</v>
@@ -12343,10 +12343,10 @@
         <v>11100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.1622</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>24000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12365,10 +12365,10 @@
         <v>14067</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.9905</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>28000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>19</v>
@@ -12387,10 +12387,10 @@
         <v>9700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.6804</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>753</v>
@@ -12409,10 +12409,10 @@
         <v>9600</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>14500</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.5104</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>14500</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>599</v>
@@ -12431,10 +12431,10 @@
         <v>9230</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>14500</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.571</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>14500</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>571</v>
@@ -12453,10 +12453,10 @@
         <v>8900</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.5169</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13500</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>292</v>
@@ -12475,10 +12475,10 @@
         <v>8650</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.6185</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>141</v>
@@ -12497,10 +12497,10 @@
         <v>7855</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.5913</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12500</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>304</v>
@@ -12519,10 +12519,10 @@
         <v>7808</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>11340</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.4524</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>11340</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>160</v>
@@ -12541,10 +12541,10 @@
         <v>7565</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.4276</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10800</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -12563,10 +12563,10 @@
         <v>7400</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.3784</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10200</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -12585,10 +12585,10 @@
         <v>7575</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.3861</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>10500</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12607,10 +12607,10 @@
         <v>6741</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.6318</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>37</v>
@@ -12629,10 +12629,10 @@
         <v>6780</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.4454</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9800</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>71</v>
@@ -12651,10 +12651,10 @@
         <v>6850</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.3139</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -12673,10 +12673,10 @@
         <v>6950</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.4101</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9800</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12695,10 +12695,10 @@
         <v>6952</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.0069</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -12717,10 +12717,10 @@
         <v>6955</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.294</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12739,10 +12739,10 @@
         <v>6400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8350</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.3047</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8350</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12761,10 +12761,10 @@
         <v>5600</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>7100</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.2679</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>7100</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12783,10 +12783,10 @@
         <v>5800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.3103</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7600</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12805,10 +12805,10 @@
         <v>4600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.1957</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5500</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12827,10 +12827,10 @@
         <v>5000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12849,10 +12849,10 @@
         <v>5500</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6600</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>17</v>
@@ -12868,10 +12868,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="n">
+      <c r="D51" s="29" t="n">
         <v>6550</v>
       </c>
+      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -12886,10 +12886,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="n">
+      <c r="D52" s="29" t="n">
         <v>6300</v>
       </c>
+      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>12</v>
       </c>
@@ -12904,10 +12904,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
+      <c r="D53" s="29" t="n">
         <v>5975</v>
       </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>147</v>
       </c>
@@ -12922,10 +12922,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
+      <c r="D54" s="29" t="n">
         <v>5650</v>
       </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>319</v>
       </c>
@@ -12940,10 +12940,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
+      <c r="D55" s="29" t="n">
         <v>5200</v>
       </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>316</v>
       </c>
@@ -12958,10 +12958,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
+      <c r="D56" s="29" t="n">
         <v>4895</v>
       </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>1000</v>
       </c>
@@ -12976,10 +12976,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
+      <c r="D57" s="29" t="n">
         <v>4500</v>
       </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>149</v>
       </c>
@@ -12994,10 +12994,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
+      <c r="D58" s="29" t="n">
         <v>4450</v>
       </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>18</v>
       </c>
@@ -13012,10 +13012,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
+      <c r="D59" s="29" t="n">
         <v>3500</v>
       </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>10</v>
       </c>
@@ -13030,10 +13030,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
+      <c r="D60" s="29" t="n">
         <v>3050</v>
       </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>152</v>
       </c>
@@ -13048,10 +13048,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
+      <c r="D61" s="29" t="n">
         <v>2770</v>
       </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>115</v>
       </c>
@@ -13066,10 +13066,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -13084,10 +13084,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -13102,10 +13102,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -13120,10 +13120,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -13138,10 +13138,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -13156,10 +13156,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -13174,10 +13174,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -13191,10 +13191,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -13208,10 +13208,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -13225,10 +13225,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -13242,10 +13242,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -13259,10 +13259,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -13276,10 +13276,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
